--- a/REGULAR/RE-ENCODE/MENDOZA, JUANITO.xlsx
+++ b/REGULAR/RE-ENCODE/MENDOZA, JUANITO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\PICNIC GROVE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83CC6738-65D6-4660-9779-92E43DC60477}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDBA92E0-791A-43E7-9E29-B361BCEC5F95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,25 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>PERIOD</t>
   </si>
@@ -246,6 +238,9 @@
   </si>
   <si>
     <t>11/26-27/2022</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE BALANCE</t>
   </si>
 </sst>
 </file>
@@ -1272,9 +1267,9 @@
   <dimension ref="A2:K132"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A67" activePane="bottomLeft"/>
+      <pane ySplit="3576" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <selection pane="bottomLeft" activeCell="Q8" sqref="M8:Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3787,7 +3782,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3881,6 +3876,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -3902,6 +3900,10 @@
       <c r="L6" s="61"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="11">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>371.66899999999998</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>
